--- a/ExcelFile/output.xlsx
+++ b/ExcelFile/output.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2303757_cognizant_com/Documents/Documents/Custom Office Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303757\eclipse-workspace\hackathon (2)\hackathon\hackathon\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E16D4A19-2A0B-4403-A569-A9FD599EEB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68983FDC-F885-4FDC-A5B1-73237795E5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FE65D8C4-818E-486D-8986-BC4884CF5631}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,12 +35,81 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+  <si>
+    <t>Reliance</t>
+  </si>
+  <si>
+    <t>Niva Bupa (formerly known as Max Bupa)</t>
+  </si>
+  <si>
+    <t>Care Health</t>
+  </si>
+  <si>
+    <t>₹1,514</t>
+  </si>
+  <si>
+    <t>₹2,089</t>
+  </si>
+  <si>
+    <t>₹2,156</t>
+  </si>
+  <si>
+    <t>Please enter valid email address</t>
+  </si>
+  <si>
+    <t>Family Health Insurance</t>
+  </si>
+  <si>
+    <t>Senior Citizen Health Insurance</t>
+  </si>
+  <si>
+    <t>Health Insurance for Parents</t>
+  </si>
+  <si>
+    <t>Best Health Insurance Plans</t>
+  </si>
+  <si>
+    <t>Maternity Insurance</t>
+  </si>
+  <si>
+    <t>Health Insurance Portability</t>
+  </si>
+  <si>
+    <t>Mediclaim Policy</t>
+  </si>
+  <si>
+    <t>Critical Illness Insurance</t>
+  </si>
+  <si>
+    <t>Health Insurance Calculator</t>
+  </si>
+  <si>
+    <t>Health Insurance Companies</t>
+  </si>
+  <si>
+    <t>Health Insurance for NRIs</t>
+  </si>
+  <si>
+    <t>Health Insurance Claim</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -382,12 +451,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADA45F1-2145-45A0-BE20-3E69A04CE9D1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ExcelFile/output.xlsx
+++ b/ExcelFile/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303757\eclipse-workspace\hackathon (2)\hackathon\hackathon\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68983FDC-F885-4FDC-A5B1-73237795E5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18E6630-9882-4A51-AF5C-B8AE98389EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FE65D8C4-818E-486D-8986-BC4884CF5631}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="28">
   <si>
     <t>Reliance</t>
   </si>
@@ -93,6 +93,33 @@
   </si>
   <si>
     <t>Health Insurance Claim</t>
+  </si>
+  <si>
+    <t>₹1,282</t>
+  </si>
+  <si>
+    <t>₹1,541</t>
+  </si>
+  <si>
+    <t>₹1,716</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Tata AIG</t>
+  </si>
+  <si>
+    <t>₹2,764</t>
+  </si>
+  <si>
+    <t>₹2,702</t>
+  </si>
+  <si>
+    <t>Bajaj Allianz</t>
+  </si>
+  <si>
+    <t>₹1,779</t>
   </si>
 </sst>
 </file>
@@ -454,10 +481,15 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="27.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.81640625"/>
+    <col min="3" max="3" customWidth="true" width="35.26953125"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
